--- a/Documentacion Tecnica/Guiones de prueba/EM-Mapa/QA-EM-Mapa-CU1_ConsultarMapaESCOM.xlsx
+++ b/Documentacion Tecnica/Guiones de prueba/EM-Mapa/QA-EM-Mapa-CU1_ConsultarMapaESCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8.1\Desktop\ESCOMobile TT2\ESCOMobile\Documentacion Tecnica\Guiones de prueba\EM-Mapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7EEC0B-4BFC-4FA4-BD1C-F8FEF6F9515E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBE4E36-94CC-4152-8584-F737AD0042CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CU1InformacionGeneral" sheetId="1" r:id="rId1"/>
@@ -655,6 +655,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,9 +687,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1024,11 +1024,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1059,7 +1059,7 @@
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="44" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="2"/>
@@ -1101,11 +1101,11 @@
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1126,11 +1126,11 @@
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1171,11 +1171,11 @@
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -1206,18 +1206,18 @@
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
     </row>
     <row r="25" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -1322,8 +1322,8 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1463,33 +1463,33 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="57" t="s">
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
     </row>
     <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="56" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="23" t="s">
@@ -1518,11 +1518,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="42" t="s">
         <v>57</v>
       </c>
